--- a/TestData/ProductManagement/ProductTestData.xlsx
+++ b/TestData/ProductManagement/ProductTestData.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\POM_for_Bottle\WebApp\TestData\ProductManagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBF3A863-94AC-46EA-A542-7F1430532834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C253991-F0B0-4E8B-B28E-F093C60D2FC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProductSheet" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="editSheet" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="64">
   <si>
     <t>name</t>
   </si>
@@ -61,9 +61,6 @@
     <t>sizes</t>
   </si>
   <si>
-    <t>Ravager Ultimate</t>
-  </si>
-  <si>
     <t>male</t>
   </si>
   <si>
@@ -139,22 +136,88 @@
     <t>unisex</t>
   </si>
   <si>
-    <t>Test8</t>
-  </si>
-  <si>
-    <t>Test9</t>
-  </si>
-  <si>
-    <t>Test10</t>
-  </si>
-  <si>
-    <t>Test11</t>
-  </si>
-  <si>
-    <t>Test12</t>
-  </si>
-  <si>
-    <t>test-01-1</t>
+    <t>Aviator prime</t>
+  </si>
+  <si>
+    <t>leather_type</t>
+  </si>
+  <si>
+    <t>Silver Foil</t>
+  </si>
+  <si>
+    <t>sizes_list</t>
+  </si>
+  <si>
+    <t>duplicate_leather</t>
+  </si>
+  <si>
+    <t>Pink Foil</t>
+  </si>
+  <si>
+    <t>XXXS,XXS</t>
+  </si>
+  <si>
+    <t>XXXS,XXS,Extra Small (XS)</t>
+  </si>
+  <si>
+    <t>leatherType</t>
+  </si>
+  <si>
+    <t>Pine Cone</t>
+  </si>
+  <si>
+    <t>Pink Foil,Silver Foil</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Tobacco Brown</t>
+  </si>
+  <si>
+    <t>Sheep Tumble</t>
+  </si>
+  <si>
+    <t>Mahogany Antique</t>
+  </si>
+  <si>
+    <t>Green Foil</t>
+  </si>
+  <si>
+    <t>New Zealand Sheep</t>
+  </si>
+  <si>
+    <t>Biker</t>
+  </si>
+  <si>
+    <t>Casual</t>
+  </si>
+  <si>
+    <t>Party</t>
+  </si>
+  <si>
+    <t>Outing</t>
+  </si>
+  <si>
+    <t>Winter-Jacket</t>
+  </si>
+  <si>
+    <t>Leather-Jacket-01</t>
+  </si>
+  <si>
+    <t>Leather-Jacket-02</t>
+  </si>
+  <si>
+    <t>Leather-Jacket-03</t>
+  </si>
+  <si>
+    <t>Leather-Jacket-04</t>
+  </si>
+  <si>
+    <t>Leather-Jacket-05</t>
+  </si>
+  <si>
+    <t>Leather-Jacket-06</t>
   </si>
 </sst>
 </file>
@@ -481,30 +544,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="18" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="5.44140625" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="8.109375" customWidth="1"/>
+    <col min="5" max="5" width="5.5546875" customWidth="1"/>
+    <col min="6" max="6" width="6.6640625" customWidth="1"/>
+    <col min="7" max="7" width="8.44140625" customWidth="1"/>
+    <col min="8" max="8" width="13.21875" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" customWidth="1"/>
+    <col min="10" max="10" width="8.77734375" customWidth="1"/>
+    <col min="13" max="13" width="11.88671875" customWidth="1"/>
+    <col min="14" max="14" width="14" customWidth="1"/>
+    <col min="15" max="15" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -539,31 +602,40 @@
       <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="M1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="E2">
         <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="H2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I2" t="b">
         <v>1</v>
@@ -572,10 +644,254 @@
         <v>1</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>16</v>
+      <c r="M2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" t="s">
+        <v>49</v>
+      </c>
+      <c r="N4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" t="s">
+        <v>50</v>
+      </c>
+      <c r="N5" t="s">
+        <v>43</v>
+      </c>
+      <c r="O5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6">
+        <v>9</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" t="b">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" t="s">
+        <v>51</v>
+      </c>
+      <c r="N6" t="s">
+        <v>43</v>
+      </c>
+      <c r="O6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" t="s">
+        <v>52</v>
+      </c>
+      <c r="N7" t="s">
+        <v>43</v>
+      </c>
+      <c r="O7" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -586,203 +902,41 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C816CAD-38EC-4C31-B6FE-AC28C0ADB44A}">
-  <dimension ref="A1:L5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9FAFAB5-1BA4-4F5F-96A0-FB8A456ED628}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:R9"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1">
-        <v>9</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" t="b">
         <v>0</v>
       </c>
-      <c r="J1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>19</v>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J2" t="b">
-        <v>1</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3">
-        <v>8</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" t="b">
-        <v>0</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4">
-        <v>9</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" t="b">
-        <v>1</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5">
-        <v>10</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>23</v>
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/ProductManagement/ProductTestData.xlsx
+++ b/TestData/ProductManagement/ProductTestData.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\POM_for_Bottle\WebApp\TestData\ProductManagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C253991-F0B0-4E8B-B28E-F093C60D2FC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F87A218C-7453-46F0-8AFF-4E730666435B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProductSheet" sheetId="1" r:id="rId1"/>
     <sheet name="editSheet" sheetId="3" r:id="rId2"/>
+    <sheet name="synchronization_sheet" sheetId="7" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="81">
   <si>
     <t>name</t>
   </si>
@@ -79,9 +80,6 @@
     <t>imgPath</t>
   </si>
   <si>
-    <t>E:\POM_for_Bottle\WebApp\TestData\ProductManagement\sampleData\Black Plain Jacket.jpg</t>
-  </si>
-  <si>
     <t>23,24,25,26,27,28,29,30,31,33</t>
   </si>
   <si>
@@ -112,18 +110,6 @@
     <t>Frontier ultimate</t>
   </si>
   <si>
-    <t>E:\POM_for_Bottle\WebApp\TestData\ProductManagement\sampleData\BrowN Leather Beta.png</t>
-  </si>
-  <si>
-    <t>E:\POM_for_Bottle\WebApp\TestData\ProductManagement\sampleData\brown Plain Jacket.jpg</t>
-  </si>
-  <si>
-    <t>E:\POM_for_Bottle\WebApp\TestData\ProductManagement\sampleData\David Leather Jacket.jpg</t>
-  </si>
-  <si>
-    <t>E:\POM_for_Bottle\WebApp\TestData\ProductManagement\sampleData\Fraper leather Jacket.jpg</t>
-  </si>
-  <si>
     <t>Black</t>
   </si>
   <si>
@@ -151,27 +137,9 @@
     <t>duplicate_leather</t>
   </si>
   <si>
-    <t>Pink Foil</t>
-  </si>
-  <si>
-    <t>XXXS,XXS</t>
-  </si>
-  <si>
     <t>XXXS,XXS,Extra Small (XS)</t>
   </si>
   <si>
-    <t>leatherType</t>
-  </si>
-  <si>
-    <t>Pine Cone</t>
-  </si>
-  <si>
-    <t>Pink Foil,Silver Foil</t>
-  </si>
-  <si>
-    <t>Product</t>
-  </si>
-  <si>
     <t>Tobacco Brown</t>
   </si>
   <si>
@@ -202,22 +170,106 @@
     <t>Winter-Jacket</t>
   </si>
   <si>
-    <t>Leather-Jacket-01</t>
-  </si>
-  <si>
-    <t>Leather-Jacket-02</t>
-  </si>
-  <si>
-    <t>Leather-Jacket-03</t>
-  </si>
-  <si>
-    <t>Leather-Jacket-04</t>
-  </si>
-  <si>
-    <t>Leather-Jacket-05</t>
-  </si>
-  <si>
-    <t>Leather-Jacket-06</t>
+    <t>price_list</t>
+  </si>
+  <si>
+    <t>5000, 5000, 5000</t>
+  </si>
+  <si>
+    <t>secondaryImg</t>
+  </si>
+  <si>
+    <t>E:\POM_for_Bottle\WebApp\TestData\ProductManagement\sampleData\Biker-Leather\Biker-Leather-01.jpg</t>
+  </si>
+  <si>
+    <t>E:\POM_for_Bottle\WebApp\TestData\ProductManagement\sampleData\Biker-Leather\Biker-Leather-02.jpg</t>
+  </si>
+  <si>
+    <t>E:\POM_for_Bottle\WebApp\TestData\ProductManagement\sampleData\Black-Leather\Black-Leather-01.jpg</t>
+  </si>
+  <si>
+    <t>E:\POM_for_Bottle\WebApp\TestData\ProductManagement\sampleData\Black-Leather\Black-Leather-02.jpg</t>
+  </si>
+  <si>
+    <t>E:\POM_for_Bottle\WebApp\TestData\ProductManagement\sampleData\Black-Sport\Black-Leather-01.jpg</t>
+  </si>
+  <si>
+    <t>E:\POM_for_Bottle\WebApp\TestData\ProductManagement\sampleData\Black-Sport\Black-Leather-02.jpeg</t>
+  </si>
+  <si>
+    <t>E:\POM_for_Bottle\WebApp\TestData\ProductManagement\sampleData\Brown-Leather\Brown-Leather-01.jpg</t>
+  </si>
+  <si>
+    <t>E:\POM_for_Bottle\WebApp\TestData\ProductManagement\sampleData\Brown-Leather\Brown-Leather-02.jpg</t>
+  </si>
+  <si>
+    <t>E:\POM_for_Bottle\WebApp\TestData\ProductManagement\sampleData\Brown-2\BrowN Leather Beta 01.jpg</t>
+  </si>
+  <si>
+    <t>E:\POM_for_Bottle\WebApp\TestData\ProductManagement\sampleData\Brown-2\BrowN Leather Beta 02.png</t>
+  </si>
+  <si>
+    <t>E:\POM_for_Bottle\WebApp\TestData\ProductManagement\sampleData\Bas-Black\Bas-Black 01.jpg</t>
+  </si>
+  <si>
+    <t>E:\POM_for_Bottle\WebApp\TestData\ProductManagement\sampleData\Bas-Black\Bas-Black 02.jpg</t>
+  </si>
+  <si>
+    <t>This is a testing mode description - After Editing</t>
+  </si>
+  <si>
+    <t>Pink Foil,Pine Cone</t>
+  </si>
+  <si>
+    <t>Pine Cone,Sheep Tumble</t>
+  </si>
+  <si>
+    <t>New Zealand Sheep,Silver Foil</t>
+  </si>
+  <si>
+    <t>Tobacco Brown,New Zealand Sheep</t>
+  </si>
+  <si>
+    <t>Silver Foil,Sheep Tumble</t>
+  </si>
+  <si>
+    <t>Sheep Tumble,Pink Foil</t>
+  </si>
+  <si>
+    <t>TEST-A-08</t>
+  </si>
+  <si>
+    <t>TEST-A-09</t>
+  </si>
+  <si>
+    <t>TEST-A-10</t>
+  </si>
+  <si>
+    <t>TEST-A-11</t>
+  </si>
+  <si>
+    <t>TEST-A-12</t>
+  </si>
+  <si>
+    <t>TEST-A-13</t>
+  </si>
+  <si>
+    <t>TEST-AS-07</t>
+  </si>
+  <si>
+    <t>TEST-AS-08</t>
+  </si>
+  <si>
+    <t>TEST-AS-09</t>
+  </si>
+  <si>
+    <t>TEST-AS-10</t>
+  </si>
+  <si>
+    <t>TEST-AS-11</t>
+  </si>
+  <si>
+    <t>TEST-AS-12</t>
   </si>
 </sst>
 </file>
@@ -544,10 +596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -562,10 +614,11 @@
     <col min="10" max="10" width="8.77734375" customWidth="1"/>
     <col min="13" max="13" width="11.88671875" customWidth="1"/>
     <col min="14" max="14" width="14" customWidth="1"/>
-    <col min="15" max="15" width="13.109375" customWidth="1"/>
+    <col min="15" max="15" width="13.33203125" customWidth="1"/>
+    <col min="16" max="16" width="46.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -603,24 +656,27 @@
         <v>10</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -635,7 +691,7 @@
         <v>13</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="I2" t="b">
         <v>1</v>
@@ -650,36 +706,39 @@
         <v>15</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="N2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="O2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+      <c r="P2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <v>9</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>13</v>
@@ -694,42 +753,45 @@
         <v>14</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" t="s">
         <v>48</v>
       </c>
-      <c r="N3" t="s">
-        <v>43</v>
-      </c>
-      <c r="O3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E4">
         <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="I4" t="b">
         <v>1</v>
@@ -741,27 +803,30 @@
         <v>14</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M4" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="N4" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="O4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+      <c r="P4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>11</v>
@@ -770,13 +835,13 @@
         <v>8</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="I5" t="b">
         <v>0</v>
@@ -788,36 +853,39 @@
         <v>14</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M5" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="N5" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="O5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E6">
         <v>9</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>13</v>
@@ -835,42 +903,45 @@
         <v>14</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M6" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="N6" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="O6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+      <c r="P6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E7">
         <v>10</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="I7" t="b">
         <v>0</v>
@@ -882,16 +953,19 @@
         <v>14</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M7" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="N7" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="O7" t="s">
-        <v>49</v>
+        <v>48</v>
+      </c>
+      <c r="P7" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -903,43 +977,564 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9FAFAB5-1BA4-4F5F-96A0-FB8A456ED628}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection sqref="A1:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="7.77734375" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="C5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D2" t="s">
-        <v>46</v>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE153BA7-FDE8-4C8E-AE4E-9C3B02A2612D}">
+  <dimension ref="A1:P7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="18" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="8.109375" customWidth="1"/>
+    <col min="5" max="5" width="5.5546875" customWidth="1"/>
+    <col min="6" max="6" width="6.6640625" customWidth="1"/>
+    <col min="7" max="7" width="8.44140625" customWidth="1"/>
+    <col min="8" max="8" width="13.21875" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" customWidth="1"/>
+    <col min="10" max="10" width="8.77734375" customWidth="1"/>
+    <col min="13" max="13" width="11.88671875" customWidth="1"/>
+    <col min="14" max="14" width="14" customWidth="1"/>
+    <col min="15" max="15" width="13.33203125" customWidth="1"/>
+    <col min="16" max="16" width="23.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" t="s">
+        <v>48</v>
+      </c>
+      <c r="P3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" t="s">
+        <v>38</v>
+      </c>
+      <c r="N4" t="s">
+        <v>36</v>
+      </c>
+      <c r="O4" t="s">
+        <v>48</v>
+      </c>
+      <c r="P4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N5" t="s">
+        <v>36</v>
+      </c>
+      <c r="O5" t="s">
+        <v>48</v>
+      </c>
+      <c r="P5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6">
+        <v>9</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" t="b">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" t="s">
+        <v>40</v>
+      </c>
+      <c r="N6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O6" t="s">
+        <v>48</v>
+      </c>
+      <c r="P6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M7" t="s">
+        <v>41</v>
+      </c>
+      <c r="N7" t="s">
+        <v>36</v>
+      </c>
+      <c r="O7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/TestData/ProductManagement/ProductTestData.xlsx
+++ b/TestData/ProductManagement/ProductTestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\POM_for_Bottle\WebApp\TestData\ProductManagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F87A218C-7453-46F0-8AFF-4E730666435B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53498730-572B-4396-A5EE-428300F4C6A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProductSheet" sheetId="1" r:id="rId1"/>
@@ -236,40 +236,40 @@
     <t>Sheep Tumble,Pink Foil</t>
   </si>
   <si>
-    <t>TEST-A-08</t>
-  </si>
-  <si>
-    <t>TEST-A-09</t>
-  </si>
-  <si>
-    <t>TEST-A-10</t>
-  </si>
-  <si>
-    <t>TEST-A-11</t>
-  </si>
-  <si>
-    <t>TEST-A-12</t>
-  </si>
-  <si>
-    <t>TEST-A-13</t>
-  </si>
-  <si>
-    <t>TEST-AS-07</t>
-  </si>
-  <si>
-    <t>TEST-AS-08</t>
-  </si>
-  <si>
-    <t>TEST-AS-09</t>
-  </si>
-  <si>
-    <t>TEST-AS-10</t>
-  </si>
-  <si>
-    <t>TEST-AS-11</t>
-  </si>
-  <si>
-    <t>TEST-AS-12</t>
+    <t>TEST-A-32</t>
+  </si>
+  <si>
+    <t>TEST-A-33</t>
+  </si>
+  <si>
+    <t>TEST-A-34</t>
+  </si>
+  <si>
+    <t>TEST-A-35</t>
+  </si>
+  <si>
+    <t>TEST-A-36</t>
+  </si>
+  <si>
+    <t>TEST-A-37</t>
+  </si>
+  <si>
+    <t>TEST-AS-31</t>
+  </si>
+  <si>
+    <t>TEST-AS-32</t>
+  </si>
+  <si>
+    <t>TEST-AS-33</t>
+  </si>
+  <si>
+    <t>TEST-AS-34</t>
+  </si>
+  <si>
+    <t>TEST-AS-35</t>
+  </si>
+  <si>
+    <t>TEST-AS-36</t>
   </si>
 </sst>
 </file>
@@ -598,8 +598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -980,7 +980,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E7"/>
+      <selection activeCell="A2" sqref="A2:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1153,6 +1153,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1162,8 +1163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE153BA7-FDE8-4C8E-AE4E-9C3B02A2612D}">
   <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/TestData/ProductManagement/ProductTestData.xlsx
+++ b/TestData/ProductManagement/ProductTestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\POM_for_Bottle\WebApp\TestData\ProductManagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53498730-572B-4396-A5EE-428300F4C6A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65F1838E-D74A-422A-B380-A3B74CF0BCC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProductSheet" sheetId="1" r:id="rId1"/>
@@ -236,40 +236,40 @@
     <t>Sheep Tumble,Pink Foil</t>
   </si>
   <si>
-    <t>TEST-A-32</t>
-  </si>
-  <si>
-    <t>TEST-A-33</t>
-  </si>
-  <si>
-    <t>TEST-A-34</t>
-  </si>
-  <si>
-    <t>TEST-A-35</t>
-  </si>
-  <si>
-    <t>TEST-A-36</t>
-  </si>
-  <si>
-    <t>TEST-A-37</t>
-  </si>
-  <si>
-    <t>TEST-AS-31</t>
-  </si>
-  <si>
-    <t>TEST-AS-32</t>
-  </si>
-  <si>
-    <t>TEST-AS-33</t>
-  </si>
-  <si>
-    <t>TEST-AS-34</t>
-  </si>
-  <si>
-    <t>TEST-AS-35</t>
-  </si>
-  <si>
-    <t>TEST-AS-36</t>
+    <t>TEST-A-68</t>
+  </si>
+  <si>
+    <t>TEST-A-69</t>
+  </si>
+  <si>
+    <t>TEST-A-70</t>
+  </si>
+  <si>
+    <t>TEST-A-71</t>
+  </si>
+  <si>
+    <t>TEST-A-72</t>
+  </si>
+  <si>
+    <t>TEST-A-73</t>
+  </si>
+  <si>
+    <t>TEST-SA-56</t>
+  </si>
+  <si>
+    <t>TEST-SA-57</t>
+  </si>
+  <si>
+    <t>TEST-SA-58</t>
+  </si>
+  <si>
+    <t>TEST-SA-59</t>
+  </si>
+  <si>
+    <t>TEST-SA-60</t>
+  </si>
+  <si>
+    <t>TEST-SA-61</t>
   </si>
 </sst>
 </file>
@@ -598,7 +598,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B7"/>
     </sheetView>
   </sheetViews>
@@ -1163,7 +1163,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE153BA7-FDE8-4C8E-AE4E-9C3B02A2612D}">
   <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B7"/>
     </sheetView>
   </sheetViews>
